--- a/dados/BD_Bombonas.xlsx
+++ b/dados/BD_Bombonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomateus-my.sharepoint.com/personal/hamilton_pires_grupomateus_com/Documents/hamilton/Consultoria/Lidiane/2026/app_bombonas/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{40E215D4-4623-41EB-B246-4B63951E0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272E9439-E327-448C-9DAD-AB3908A42F43}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{40E215D4-4623-41EB-B246-4B63951E0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{968BBD26-EBAD-4850-80A0-9416E9028E89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9588DCE0-F8D9-46B8-8782-90EC7820DC70}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BASE BOMBONAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BASE BOMBONAS'!$A$1:$L$746</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BASE BOMBONAS'!$A$747:$L$792</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="379">
   <si>
     <t>DATA</t>
   </si>
@@ -1555,7 +1555,7 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L746"/>
+  <dimension ref="A1:L792"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29926,6 +29926,1748 @@
         <v>40</v>
       </c>
     </row>
+    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B747" t="s">
+        <v>4</v>
+      </c>
+      <c r="C747">
+        <v>0</v>
+      </c>
+      <c r="D747">
+        <v>0</v>
+      </c>
+      <c r="E747">
+        <v>0</v>
+      </c>
+      <c r="F747">
+        <v>0</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="I747">
+        <v>0</v>
+      </c>
+      <c r="J747">
+        <v>0</v>
+      </c>
+      <c r="K747">
+        <v>0</v>
+      </c>
+      <c r="L747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>46023</v>
+      </c>
+      <c r="B748" t="s">
+        <v>3</v>
+      </c>
+      <c r="C748">
+        <v>0</v>
+      </c>
+      <c r="D748">
+        <v>0</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>0</v>
+      </c>
+      <c r="I748">
+        <v>0</v>
+      </c>
+      <c r="J748">
+        <v>0</v>
+      </c>
+      <c r="K748">
+        <v>0</v>
+      </c>
+      <c r="L748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B749" t="s">
+        <v>4</v>
+      </c>
+      <c r="C749">
+        <v>0</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749">
+        <v>10</v>
+      </c>
+      <c r="F749">
+        <v>250</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+      <c r="I749">
+        <v>0</v>
+      </c>
+      <c r="J749">
+        <v>0</v>
+      </c>
+      <c r="K749">
+        <v>0</v>
+      </c>
+      <c r="L749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B750" t="s">
+        <v>3</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750">
+        <v>25</v>
+      </c>
+      <c r="E750">
+        <v>36</v>
+      </c>
+      <c r="F750">
+        <v>900</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+      <c r="I750">
+        <v>2</v>
+      </c>
+      <c r="J750">
+        <v>50</v>
+      </c>
+      <c r="K750">
+        <v>4</v>
+      </c>
+      <c r="L750">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>46025</v>
+      </c>
+      <c r="B751" t="s">
+        <v>4</v>
+      </c>
+      <c r="C751">
+        <v>0</v>
+      </c>
+      <c r="D751">
+        <v>0</v>
+      </c>
+      <c r="E751">
+        <v>7</v>
+      </c>
+      <c r="F751">
+        <v>175</v>
+      </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="I751">
+        <v>1</v>
+      </c>
+      <c r="J751">
+        <v>25</v>
+      </c>
+      <c r="K751">
+        <v>2</v>
+      </c>
+      <c r="L751">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>46025</v>
+      </c>
+      <c r="B752" t="s">
+        <v>3</v>
+      </c>
+      <c r="C752">
+        <v>0</v>
+      </c>
+      <c r="D752">
+        <v>0</v>
+      </c>
+      <c r="E752">
+        <v>17</v>
+      </c>
+      <c r="F752">
+        <v>425</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>0</v>
+      </c>
+      <c r="I752">
+        <v>1</v>
+      </c>
+      <c r="J752">
+        <v>25</v>
+      </c>
+      <c r="K752">
+        <v>2</v>
+      </c>
+      <c r="L752">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>46026</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4</v>
+      </c>
+      <c r="C753">
+        <v>0</v>
+      </c>
+      <c r="D753">
+        <v>0</v>
+      </c>
+      <c r="E753">
+        <v>6</v>
+      </c>
+      <c r="F753">
+        <v>150</v>
+      </c>
+      <c r="G753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+      <c r="I753">
+        <v>0</v>
+      </c>
+      <c r="J753">
+        <v>0</v>
+      </c>
+      <c r="K753">
+        <v>0</v>
+      </c>
+      <c r="L753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>46026</v>
+      </c>
+      <c r="B754" t="s">
+        <v>3</v>
+      </c>
+      <c r="C754">
+        <v>1</v>
+      </c>
+      <c r="D754">
+        <v>25</v>
+      </c>
+      <c r="E754">
+        <v>18</v>
+      </c>
+      <c r="F754">
+        <v>450</v>
+      </c>
+      <c r="G754">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+      <c r="I754">
+        <v>0</v>
+      </c>
+      <c r="J754">
+        <v>0</v>
+      </c>
+      <c r="K754">
+        <v>2</v>
+      </c>
+      <c r="L754">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B755" t="s">
+        <v>4</v>
+      </c>
+      <c r="C755">
+        <v>0</v>
+      </c>
+      <c r="D755">
+        <v>0</v>
+      </c>
+      <c r="E755">
+        <v>8</v>
+      </c>
+      <c r="F755">
+        <v>200</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+      <c r="I755">
+        <v>0</v>
+      </c>
+      <c r="J755">
+        <v>0</v>
+      </c>
+      <c r="K755">
+        <v>0</v>
+      </c>
+      <c r="L755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B756" t="s">
+        <v>3</v>
+      </c>
+      <c r="C756">
+        <v>0</v>
+      </c>
+      <c r="D756">
+        <v>0</v>
+      </c>
+      <c r="E756">
+        <v>16</v>
+      </c>
+      <c r="F756">
+        <v>400</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
+        <v>3</v>
+      </c>
+      <c r="J756">
+        <v>60</v>
+      </c>
+      <c r="K756">
+        <v>3</v>
+      </c>
+      <c r="L756">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B757" t="s">
+        <v>4</v>
+      </c>
+      <c r="C757">
+        <v>0</v>
+      </c>
+      <c r="E757">
+        <v>6</v>
+      </c>
+      <c r="F757">
+        <v>150</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+      <c r="I757">
+        <v>0</v>
+      </c>
+      <c r="J757">
+        <v>0</v>
+      </c>
+      <c r="K757">
+        <v>0</v>
+      </c>
+      <c r="L757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B758" t="s">
+        <v>3</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+      <c r="D758">
+        <v>25</v>
+      </c>
+      <c r="E758">
+        <v>18</v>
+      </c>
+      <c r="F758">
+        <v>450</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="I758">
+        <v>1</v>
+      </c>
+      <c r="J758">
+        <v>25</v>
+      </c>
+      <c r="K758">
+        <v>2</v>
+      </c>
+      <c r="L758">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+      <c r="C759">
+        <v>0</v>
+      </c>
+      <c r="D759">
+        <v>0</v>
+      </c>
+      <c r="E759">
+        <v>5</v>
+      </c>
+      <c r="F759">
+        <v>125</v>
+      </c>
+      <c r="G759">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+      <c r="I759">
+        <v>1</v>
+      </c>
+      <c r="J759">
+        <v>25</v>
+      </c>
+      <c r="K759">
+        <v>1</v>
+      </c>
+      <c r="L759">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B760" t="s">
+        <v>3</v>
+      </c>
+      <c r="C760">
+        <v>1</v>
+      </c>
+      <c r="D760">
+        <v>25</v>
+      </c>
+      <c r="E760">
+        <v>18</v>
+      </c>
+      <c r="F760">
+        <v>450</v>
+      </c>
+      <c r="G760">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+      <c r="I760">
+        <v>1</v>
+      </c>
+      <c r="J760">
+        <v>25</v>
+      </c>
+      <c r="K760">
+        <v>1</v>
+      </c>
+      <c r="L760">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B761" t="s">
+        <v>4</v>
+      </c>
+      <c r="C761">
+        <v>0</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761">
+        <v>7</v>
+      </c>
+      <c r="F761">
+        <v>175</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>0</v>
+      </c>
+      <c r="I761">
+        <v>0</v>
+      </c>
+      <c r="J761">
+        <v>0</v>
+      </c>
+      <c r="K761">
+        <v>1</v>
+      </c>
+      <c r="L761">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B762" t="s">
+        <v>3</v>
+      </c>
+      <c r="C762">
+        <v>0</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762">
+        <v>17</v>
+      </c>
+      <c r="F762">
+        <v>425</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+      <c r="H762">
+        <v>0</v>
+      </c>
+      <c r="I762">
+        <v>0</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+      <c r="K762">
+        <v>2</v>
+      </c>
+      <c r="L762">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A763" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4</v>
+      </c>
+      <c r="C763">
+        <v>0</v>
+      </c>
+      <c r="D763">
+        <v>0</v>
+      </c>
+      <c r="E763">
+        <v>6</v>
+      </c>
+      <c r="F763">
+        <v>150</v>
+      </c>
+      <c r="G763">
+        <v>0</v>
+      </c>
+      <c r="H763">
+        <v>0</v>
+      </c>
+      <c r="I763">
+        <v>0</v>
+      </c>
+      <c r="J763">
+        <v>0</v>
+      </c>
+      <c r="K763">
+        <v>0</v>
+      </c>
+      <c r="L763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A764" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B764" t="s">
+        <v>3</v>
+      </c>
+      <c r="C764">
+        <v>0</v>
+      </c>
+      <c r="D764">
+        <v>0</v>
+      </c>
+      <c r="E764">
+        <v>18</v>
+      </c>
+      <c r="F764">
+        <v>450</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+      <c r="I764">
+        <v>4</v>
+      </c>
+      <c r="J764">
+        <v>100</v>
+      </c>
+      <c r="K764">
+        <v>3</v>
+      </c>
+      <c r="L764">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A765" s="1">
+        <v>46032</v>
+      </c>
+      <c r="B765" t="s">
+        <v>4</v>
+      </c>
+      <c r="C765">
+        <v>0</v>
+      </c>
+      <c r="D765">
+        <v>0</v>
+      </c>
+      <c r="E765">
+        <v>6</v>
+      </c>
+      <c r="F765">
+        <v>150</v>
+      </c>
+      <c r="G765">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>0</v>
+      </c>
+      <c r="I765">
+        <v>0</v>
+      </c>
+      <c r="J765">
+        <v>0</v>
+      </c>
+      <c r="K765">
+        <v>1</v>
+      </c>
+      <c r="L765">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A766" s="1">
+        <v>46032</v>
+      </c>
+      <c r="B766" t="s">
+        <v>3</v>
+      </c>
+      <c r="C766">
+        <v>0</v>
+      </c>
+      <c r="D766">
+        <v>0</v>
+      </c>
+      <c r="E766">
+        <v>16</v>
+      </c>
+      <c r="F766">
+        <v>400</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+      <c r="H766">
+        <v>0</v>
+      </c>
+      <c r="I766">
+        <v>0</v>
+      </c>
+      <c r="J766">
+        <v>0</v>
+      </c>
+      <c r="K766">
+        <v>2</v>
+      </c>
+      <c r="L766">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A767" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B767" t="s">
+        <v>4</v>
+      </c>
+      <c r="C767">
+        <v>0</v>
+      </c>
+      <c r="D767">
+        <v>0</v>
+      </c>
+      <c r="E767">
+        <v>5</v>
+      </c>
+      <c r="F767">
+        <v>125</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+      <c r="I767">
+        <v>0</v>
+      </c>
+      <c r="J767">
+        <v>0</v>
+      </c>
+      <c r="K767">
+        <v>0</v>
+      </c>
+      <c r="L767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A768" s="1">
+        <v>46033</v>
+      </c>
+      <c r="B768" t="s">
+        <v>3</v>
+      </c>
+      <c r="C768">
+        <v>0</v>
+      </c>
+      <c r="D768">
+        <v>0</v>
+      </c>
+      <c r="E768">
+        <v>15</v>
+      </c>
+      <c r="F768">
+        <v>375</v>
+      </c>
+      <c r="G768">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+      <c r="I768">
+        <v>1</v>
+      </c>
+      <c r="J768">
+        <v>25</v>
+      </c>
+      <c r="K768">
+        <v>2</v>
+      </c>
+      <c r="L768">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A769" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B769" t="s">
+        <v>4</v>
+      </c>
+      <c r="C769">
+        <v>0</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769">
+        <v>5</v>
+      </c>
+      <c r="F769">
+        <v>125</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+      <c r="I769">
+        <v>0</v>
+      </c>
+      <c r="J769">
+        <v>0</v>
+      </c>
+      <c r="K769">
+        <v>0</v>
+      </c>
+      <c r="L769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A770" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B770" t="s">
+        <v>3</v>
+      </c>
+      <c r="C770">
+        <v>0</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770">
+        <v>16</v>
+      </c>
+      <c r="F770">
+        <v>400</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>0</v>
+      </c>
+      <c r="I770">
+        <v>0</v>
+      </c>
+      <c r="J770">
+        <v>0</v>
+      </c>
+      <c r="K770">
+        <v>2</v>
+      </c>
+      <c r="L770">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A771" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B771" t="s">
+        <v>4</v>
+      </c>
+      <c r="C771">
+        <v>0</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771">
+        <v>5</v>
+      </c>
+      <c r="F771">
+        <v>125</v>
+      </c>
+      <c r="G771">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+      <c r="I771">
+        <v>0</v>
+      </c>
+      <c r="J771">
+        <v>0</v>
+      </c>
+      <c r="K771">
+        <v>1</v>
+      </c>
+      <c r="L771">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A772" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B772" t="s">
+        <v>3</v>
+      </c>
+      <c r="C772">
+        <v>2</v>
+      </c>
+      <c r="D772">
+        <v>50</v>
+      </c>
+      <c r="E772">
+        <v>15</v>
+      </c>
+      <c r="F772">
+        <v>375</v>
+      </c>
+      <c r="G772">
+        <v>0</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+      <c r="I772">
+        <v>1</v>
+      </c>
+      <c r="J772">
+        <v>25</v>
+      </c>
+      <c r="K772">
+        <v>2</v>
+      </c>
+      <c r="L772">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A773" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B773" t="s">
+        <v>4</v>
+      </c>
+      <c r="C773">
+        <v>0</v>
+      </c>
+      <c r="D773">
+        <v>0</v>
+      </c>
+      <c r="E773">
+        <v>5</v>
+      </c>
+      <c r="F773">
+        <v>125</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>0</v>
+      </c>
+      <c r="I773">
+        <v>0</v>
+      </c>
+      <c r="J773">
+        <v>0</v>
+      </c>
+      <c r="K773">
+        <v>1</v>
+      </c>
+      <c r="L773">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A774" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B774" t="s">
+        <v>3</v>
+      </c>
+      <c r="C774">
+        <v>0</v>
+      </c>
+      <c r="D774">
+        <v>0</v>
+      </c>
+      <c r="E774">
+        <v>19</v>
+      </c>
+      <c r="F774">
+        <v>475</v>
+      </c>
+      <c r="G774">
+        <v>0</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="I774">
+        <v>1</v>
+      </c>
+      <c r="J774">
+        <v>25</v>
+      </c>
+      <c r="K774">
+        <v>2</v>
+      </c>
+      <c r="L774">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A775" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B775" t="s">
+        <v>4</v>
+      </c>
+      <c r="C775">
+        <v>0</v>
+      </c>
+      <c r="D775">
+        <v>0</v>
+      </c>
+      <c r="E775">
+        <v>6</v>
+      </c>
+      <c r="F775">
+        <v>150</v>
+      </c>
+      <c r="G775">
+        <v>0</v>
+      </c>
+      <c r="H775">
+        <v>0</v>
+      </c>
+      <c r="I775">
+        <v>0</v>
+      </c>
+      <c r="J775">
+        <v>0</v>
+      </c>
+      <c r="K775">
+        <v>1</v>
+      </c>
+      <c r="L775">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A776" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B776" t="s">
+        <v>3</v>
+      </c>
+      <c r="C776">
+        <v>1</v>
+      </c>
+      <c r="D776">
+        <v>25</v>
+      </c>
+      <c r="E776">
+        <v>17</v>
+      </c>
+      <c r="F776">
+        <v>425</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>0</v>
+      </c>
+      <c r="I776">
+        <v>1</v>
+      </c>
+      <c r="J776">
+        <v>25</v>
+      </c>
+      <c r="K776">
+        <v>2</v>
+      </c>
+      <c r="L776">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A777" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B777" t="s">
+        <v>4</v>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+      <c r="D777">
+        <v>0</v>
+      </c>
+      <c r="E777">
+        <v>6</v>
+      </c>
+      <c r="F777">
+        <v>150</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+      <c r="I777">
+        <v>0</v>
+      </c>
+      <c r="J777">
+        <v>0</v>
+      </c>
+      <c r="K777">
+        <v>0</v>
+      </c>
+      <c r="L777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A778" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B778" t="s">
+        <v>3</v>
+      </c>
+      <c r="C778">
+        <v>2</v>
+      </c>
+      <c r="D778">
+        <v>50</v>
+      </c>
+      <c r="E778">
+        <v>17</v>
+      </c>
+      <c r="F778">
+        <v>425</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+      <c r="I778">
+        <v>0</v>
+      </c>
+      <c r="J778">
+        <v>0</v>
+      </c>
+      <c r="K778">
+        <v>1</v>
+      </c>
+      <c r="L778">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A779" s="1">
+        <v>46039</v>
+      </c>
+      <c r="B779" t="s">
+        <v>4</v>
+      </c>
+      <c r="C779">
+        <v>0</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779">
+        <v>6</v>
+      </c>
+      <c r="F779">
+        <v>150</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>0</v>
+      </c>
+      <c r="I779">
+        <v>0</v>
+      </c>
+      <c r="J779">
+        <v>0</v>
+      </c>
+      <c r="K779">
+        <v>1</v>
+      </c>
+      <c r="L779">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A780" s="1">
+        <v>46039</v>
+      </c>
+      <c r="B780" t="s">
+        <v>3</v>
+      </c>
+      <c r="C780">
+        <v>1</v>
+      </c>
+      <c r="D780">
+        <v>25</v>
+      </c>
+      <c r="E780">
+        <v>17</v>
+      </c>
+      <c r="F780">
+        <v>425</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+      <c r="I780">
+        <v>1</v>
+      </c>
+      <c r="J780">
+        <v>25</v>
+      </c>
+      <c r="K780">
+        <v>2</v>
+      </c>
+      <c r="L780">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A781" s="1">
+        <v>46040</v>
+      </c>
+      <c r="B781" t="s">
+        <v>4</v>
+      </c>
+      <c r="C781">
+        <v>0</v>
+      </c>
+      <c r="D781">
+        <v>0</v>
+      </c>
+      <c r="E781">
+        <v>4</v>
+      </c>
+      <c r="F781">
+        <v>100</v>
+      </c>
+      <c r="G781">
+        <v>0</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+      <c r="I781">
+        <v>0</v>
+      </c>
+      <c r="J781">
+        <v>0</v>
+      </c>
+      <c r="K781">
+        <v>0</v>
+      </c>
+      <c r="L781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A782" s="1">
+        <v>46040</v>
+      </c>
+      <c r="B782" t="s">
+        <v>3</v>
+      </c>
+      <c r="C782">
+        <v>0</v>
+      </c>
+      <c r="D782">
+        <v>0</v>
+      </c>
+      <c r="E782">
+        <v>17</v>
+      </c>
+      <c r="F782">
+        <v>425</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+      <c r="I782">
+        <v>0</v>
+      </c>
+      <c r="J782">
+        <v>0</v>
+      </c>
+      <c r="K782">
+        <v>3</v>
+      </c>
+      <c r="L782">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A783" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B783" t="s">
+        <v>4</v>
+      </c>
+      <c r="C783">
+        <v>0</v>
+      </c>
+      <c r="D783">
+        <v>0</v>
+      </c>
+      <c r="E783">
+        <v>8</v>
+      </c>
+      <c r="F783">
+        <v>200</v>
+      </c>
+      <c r="G783">
+        <v>0</v>
+      </c>
+      <c r="H783">
+        <v>0</v>
+      </c>
+      <c r="I783">
+        <v>0</v>
+      </c>
+      <c r="J783">
+        <v>0</v>
+      </c>
+      <c r="K783">
+        <v>0</v>
+      </c>
+      <c r="L783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A784" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B784" t="s">
+        <v>3</v>
+      </c>
+      <c r="C784">
+        <v>1</v>
+      </c>
+      <c r="D784">
+        <v>25</v>
+      </c>
+      <c r="E784">
+        <v>22</v>
+      </c>
+      <c r="F784">
+        <v>550</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784">
+        <v>0</v>
+      </c>
+      <c r="I784">
+        <v>1</v>
+      </c>
+      <c r="J784">
+        <v>25</v>
+      </c>
+      <c r="K784">
+        <v>2</v>
+      </c>
+      <c r="L784">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A785" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B785" t="s">
+        <v>4</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+      <c r="D785">
+        <v>0</v>
+      </c>
+      <c r="E785">
+        <v>6</v>
+      </c>
+      <c r="F785">
+        <v>150</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+      <c r="I785">
+        <v>0</v>
+      </c>
+      <c r="J785">
+        <v>0</v>
+      </c>
+      <c r="K785">
+        <v>1</v>
+      </c>
+      <c r="L785">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A786" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B786" t="s">
+        <v>3</v>
+      </c>
+      <c r="C786">
+        <v>0</v>
+      </c>
+      <c r="D786">
+        <v>0</v>
+      </c>
+      <c r="E786">
+        <v>18</v>
+      </c>
+      <c r="F786">
+        <v>450</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786">
+        <v>0</v>
+      </c>
+      <c r="I786">
+        <v>1</v>
+      </c>
+      <c r="J786">
+        <v>25</v>
+      </c>
+      <c r="K786">
+        <v>2</v>
+      </c>
+      <c r="L786">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A787" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B787" t="s">
+        <v>4</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+      <c r="D787">
+        <v>0</v>
+      </c>
+      <c r="E787">
+        <v>4</v>
+      </c>
+      <c r="F787">
+        <v>100</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
+      </c>
+      <c r="I787">
+        <v>0</v>
+      </c>
+      <c r="J787">
+        <v>0</v>
+      </c>
+      <c r="K787">
+        <v>1</v>
+      </c>
+      <c r="L787">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A788" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B788" t="s">
+        <v>3</v>
+      </c>
+      <c r="C788">
+        <v>0</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>10</v>
+      </c>
+      <c r="F788">
+        <v>250</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>0</v>
+      </c>
+      <c r="I788">
+        <v>1</v>
+      </c>
+      <c r="J788">
+        <v>25</v>
+      </c>
+      <c r="K788">
+        <v>1</v>
+      </c>
+      <c r="L788">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A789" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B789" t="s">
+        <v>4</v>
+      </c>
+      <c r="C789">
+        <v>0</v>
+      </c>
+      <c r="D789">
+        <v>0</v>
+      </c>
+      <c r="E789">
+        <v>6</v>
+      </c>
+      <c r="F789">
+        <v>150</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+      <c r="I789">
+        <v>0</v>
+      </c>
+      <c r="J789">
+        <v>0</v>
+      </c>
+      <c r="K789">
+        <v>0</v>
+      </c>
+      <c r="L789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A790" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B790" t="s">
+        <v>3</v>
+      </c>
+      <c r="C790">
+        <v>0</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+      <c r="E790">
+        <v>17</v>
+      </c>
+      <c r="F790">
+        <v>425</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+      <c r="I790">
+        <v>1</v>
+      </c>
+      <c r="J790">
+        <v>25</v>
+      </c>
+      <c r="K790">
+        <v>2</v>
+      </c>
+      <c r="L790">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A791" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B791" t="s">
+        <v>4</v>
+      </c>
+      <c r="C791">
+        <v>2</v>
+      </c>
+      <c r="D791">
+        <v>50</v>
+      </c>
+      <c r="E791">
+        <v>6</v>
+      </c>
+      <c r="F791">
+        <v>150</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+      <c r="I791">
+        <v>0</v>
+      </c>
+      <c r="J791">
+        <v>0</v>
+      </c>
+      <c r="K791">
+        <v>1</v>
+      </c>
+      <c r="L791">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A792" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B792" t="s">
+        <v>3</v>
+      </c>
+      <c r="C792">
+        <v>0</v>
+      </c>
+      <c r="D792">
+        <v>0</v>
+      </c>
+      <c r="E792">
+        <v>19</v>
+      </c>
+      <c r="F792">
+        <v>475</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+      <c r="I792">
+        <v>0</v>
+      </c>
+      <c r="J792">
+        <v>0</v>
+      </c>
+      <c r="K792">
+        <v>4</v>
+      </c>
+      <c r="L792">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/dados/BD_Bombonas.xlsx
+++ b/dados/BD_Bombonas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomateus-my.sharepoint.com/personal/hamilton_pires_grupomateus_com/Documents/hamilton/Consultoria/Lidiane/2026/app_bombonas/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{40E215D4-4623-41EB-B246-4B63951E0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{968BBD26-EBAD-4850-80A0-9416E9028E89}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{40E215D4-4623-41EB-B246-4B63951E0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2245F34-91BD-459E-92D2-E7F642C952FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9588DCE0-F8D9-46B8-8782-90EC7820DC70}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BASE BOMBONAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BASE BOMBONAS'!$A$747:$L$792</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BASE BOMBONAS'!$A$1:$L$746</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="378">
   <si>
     <t>DATA</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>HOSPITAL DA CIDADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEXO </t>
   </si>
   <si>
     <t>BOMBONAS GRUPO A 3</t>
@@ -1182,6 +1179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1211,9 +1211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,11 +1556,11 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L792"/>
+  <dimension ref="A1:L808"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A808" sqref="A808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,39 +1587,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1656,7 +1657,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1694,7 +1695,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1732,7 +1733,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1770,7 +1771,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1846,7 +1847,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1884,7 +1885,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1922,7 +1923,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1960,7 +1961,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1998,7 +1999,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2036,7 +2037,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2074,7 +2075,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2112,7 +2113,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2150,7 +2151,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2188,7 +2189,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -2226,7 +2227,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2264,7 +2265,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2302,7 +2303,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2340,7 +2341,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2416,7 +2417,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -2454,7 +2455,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2492,7 +2493,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -2530,7 +2531,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2568,7 +2569,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2644,7 +2645,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2682,7 +2683,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2720,7 +2721,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2758,7 +2759,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2796,7 +2797,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2834,7 +2835,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -2872,7 +2873,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2910,7 +2911,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2948,7 +2949,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2986,7 +2987,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -3024,7 +3025,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -3062,7 +3063,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -3138,7 +3139,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -3176,7 +3177,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -3214,7 +3215,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -3252,7 +3253,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -3290,7 +3291,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -3328,7 +3329,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -3366,7 +3367,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -3404,7 +3405,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -3442,7 +3443,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -3480,7 +3481,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -3518,7 +3519,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -3556,7 +3557,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -3594,7 +3595,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -3632,7 +3633,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -3670,7 +3671,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -3746,7 +3747,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -3784,7 +3785,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -3860,7 +3861,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -3936,7 +3937,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -4012,7 +4013,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -4050,7 +4051,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -4088,7 +4089,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -4126,7 +4127,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -4164,7 +4165,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -4202,7 +4203,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -4240,7 +4241,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -4278,7 +4279,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -4316,7 +4317,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -4354,7 +4355,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4392,7 +4393,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -4468,7 +4469,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -4506,7 +4507,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -4544,7 +4545,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4620,7 +4621,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -4658,7 +4659,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -4696,7 +4697,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -4734,7 +4735,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -4772,7 +4773,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -4810,7 +4811,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -4848,7 +4849,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -4886,7 +4887,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -4924,7 +4925,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -4962,7 +4963,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5000,7 +5001,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5038,7 +5039,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -5076,7 +5077,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -5114,7 +5115,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5152,7 +5153,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -5190,7 +5191,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5228,7 +5229,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -5266,7 +5267,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5304,7 +5305,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -5342,7 +5343,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5380,7 +5381,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -5418,7 +5419,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5456,7 +5457,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -5494,7 +5495,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -5532,7 +5533,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -5570,7 +5571,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -5608,7 +5609,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -5646,7 +5647,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5684,7 +5685,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -5722,7 +5723,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -5760,7 +5761,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -5798,7 +5799,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5836,7 +5837,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -5874,7 +5875,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5912,7 +5913,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -5950,7 +5951,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -5988,7 +5989,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -6026,7 +6027,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -6064,7 +6065,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -6102,7 +6103,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -6140,7 +6141,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -6178,7 +6179,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -6216,7 +6217,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -6254,7 +6255,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -6292,7 +6293,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -6330,7 +6331,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -6368,7 +6369,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -6406,7 +6407,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -6444,7 +6445,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -6482,7 +6483,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -6520,7 +6521,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -6558,7 +6559,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -6596,7 +6597,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -6634,7 +6635,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -6672,7 +6673,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -6710,7 +6711,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -6748,7 +6749,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -6786,7 +6787,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -6824,7 +6825,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -6862,7 +6863,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -6900,7 +6901,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -6938,7 +6939,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -6976,7 +6977,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -7014,7 +7015,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -7052,7 +7053,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -7090,7 +7091,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -7128,7 +7129,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -7166,7 +7167,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -7204,7 +7205,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -7242,7 +7243,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -7280,7 +7281,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -7318,7 +7319,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
@@ -7356,7 +7357,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -7394,7 +7395,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -7432,7 +7433,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -7470,7 +7471,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -7508,7 +7509,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -7546,7 +7547,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -7584,7 +7585,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -7622,7 +7623,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -7660,7 +7661,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -7698,7 +7699,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -7736,7 +7737,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -7774,7 +7775,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -7812,7 +7813,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -7850,7 +7851,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -7888,7 +7889,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -7926,7 +7927,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -7964,7 +7965,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -8002,7 +8003,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -8040,7 +8041,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -8078,7 +8079,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -8116,7 +8117,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -8154,7 +8155,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -8192,7 +8193,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -8230,7 +8231,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -8268,7 +8269,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -8306,7 +8307,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -8344,7 +8345,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -8382,7 +8383,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -8420,7 +8421,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -8458,7 +8459,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -8496,7 +8497,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -8534,7 +8535,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -8572,7 +8573,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -8610,7 +8611,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -8648,7 +8649,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -8686,7 +8687,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -8724,7 +8725,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -8762,7 +8763,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -8800,7 +8801,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -8838,7 +8839,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -8876,7 +8877,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -8914,7 +8915,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -8952,7 +8953,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -8990,7 +8991,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -9028,7 +9029,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -9066,7 +9067,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -9104,7 +9105,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -9142,7 +9143,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -9180,7 +9181,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -9218,7 +9219,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -9256,7 +9257,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -9294,7 +9295,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -9332,7 +9333,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -9370,7 +9371,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -9408,7 +9409,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -9446,7 +9447,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -9484,7 +9485,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -9522,7 +9523,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -9560,7 +9561,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -9598,7 +9599,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -9636,7 +9637,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -9674,7 +9675,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -9712,7 +9713,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -9750,7 +9751,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
@@ -9788,7 +9789,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -9826,7 +9827,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
@@ -9864,7 +9865,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -9902,7 +9903,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -9940,7 +9941,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -9978,7 +9979,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
@@ -10016,7 +10017,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -10054,7 +10055,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -10092,7 +10093,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B225" t="s">
         <v>3</v>
@@ -10130,7 +10131,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -10168,7 +10169,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B227" t="s">
         <v>3</v>
@@ -10206,7 +10207,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -10244,7 +10245,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B229" t="s">
         <v>3</v>
@@ -10282,7 +10283,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -10320,7 +10321,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B231" t="s">
         <v>3</v>
@@ -10358,7 +10359,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -10396,7 +10397,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B233" t="s">
         <v>3</v>
@@ -10434,7 +10435,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -10472,7 +10473,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
@@ -10510,7 +10511,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -10548,7 +10549,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B237" t="s">
         <v>3</v>
@@ -10586,7 +10587,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -10624,7 +10625,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -10662,7 +10663,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
@@ -10700,7 +10701,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -10738,7 +10739,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B242" t="s">
         <v>3</v>
@@ -10776,7 +10777,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -10814,7 +10815,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
@@ -10852,7 +10853,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -10890,7 +10891,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
@@ -10928,7 +10929,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -10966,7 +10967,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
@@ -11004,7 +11005,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -11042,7 +11043,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
@@ -11080,7 +11081,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -11118,7 +11119,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
@@ -11156,7 +11157,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -11194,7 +11195,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
@@ -11232,7 +11233,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -11270,7 +11271,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
@@ -11308,7 +11309,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -11346,7 +11347,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B258" t="s">
         <v>3</v>
@@ -11384,7 +11385,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -11422,7 +11423,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -11460,7 +11461,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -11498,7 +11499,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -11536,7 +11537,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
@@ -11574,7 +11575,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -11612,7 +11613,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B265" t="s">
         <v>3</v>
@@ -11650,7 +11651,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -11688,7 +11689,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B267" t="s">
         <v>3</v>
@@ -11726,7 +11727,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -11764,7 +11765,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -11802,7 +11803,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B270" t="s">
         <v>3</v>
@@ -11840,7 +11841,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -11878,7 +11879,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -11916,7 +11917,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B273" t="s">
         <v>3</v>
@@ -11954,7 +11955,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -11992,7 +11993,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B275" t="s">
         <v>3</v>
@@ -12030,7 +12031,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -12068,7 +12069,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B277" t="s">
         <v>3</v>
@@ -12106,7 +12107,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -12144,7 +12145,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B279" t="s">
         <v>3</v>
@@ -12182,7 +12183,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -12220,7 +12221,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
@@ -12258,7 +12259,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -12296,7 +12297,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -12334,7 +12335,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -12372,7 +12373,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -12410,7 +12411,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -12448,7 +12449,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
@@ -12486,7 +12487,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -12524,7 +12525,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
@@ -12562,7 +12563,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -12600,7 +12601,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B291" t="s">
         <v>3</v>
@@ -12638,7 +12639,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -12676,7 +12677,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B293" t="s">
         <v>3</v>
@@ -12714,7 +12715,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -12752,7 +12753,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -12790,7 +12791,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B296" t="s">
         <v>3</v>
@@ -12828,7 +12829,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -12866,7 +12867,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B298" t="s">
         <v>3</v>
@@ -12904,7 +12905,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -12942,7 +12943,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
@@ -12980,7 +12981,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -13018,7 +13019,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B302" t="s">
         <v>3</v>
@@ -13056,7 +13057,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -13094,7 +13095,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B304" t="s">
         <v>3</v>
@@ -13132,7 +13133,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -13170,7 +13171,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B306" t="s">
         <v>3</v>
@@ -13208,7 +13209,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -13246,7 +13247,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B308" t="s">
         <v>3</v>
@@ -13284,7 +13285,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -13322,7 +13323,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B310" t="s">
         <v>3</v>
@@ -13360,7 +13361,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -13398,7 +13399,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B312" t="s">
         <v>3</v>
@@ -13436,7 +13437,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B313" t="s">
         <v>2</v>
@@ -13474,7 +13475,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -13512,7 +13513,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
@@ -13550,7 +13551,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B316" t="s">
         <v>2</v>
@@ -13588,7 +13589,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B317" t="s">
         <v>3</v>
@@ -13626,7 +13627,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B318" t="s">
         <v>3</v>
@@ -13664,7 +13665,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B319" t="s">
         <v>3</v>
@@ -13702,7 +13703,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B320" t="s">
         <v>2</v>
@@ -13740,7 +13741,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B321" t="s">
         <v>3</v>
@@ -13778,7 +13779,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
@@ -13816,7 +13817,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B323" t="s">
         <v>3</v>
@@ -13854,7 +13855,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -13892,7 +13893,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B325" t="s">
         <v>3</v>
@@ -13930,7 +13931,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -13968,7 +13969,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B327" t="s">
         <v>3</v>
@@ -14006,7 +14007,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B328" t="s">
         <v>2</v>
@@ -14044,7 +14045,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B329" t="s">
         <v>3</v>
@@ -14082,7 +14083,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B330" t="s">
         <v>2</v>
@@ -14120,7 +14121,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B331" t="s">
         <v>3</v>
@@ -14158,7 +14159,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
@@ -14196,7 +14197,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B333" t="s">
         <v>3</v>
@@ -14234,7 +14235,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
@@ -14272,7 +14273,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B335" t="s">
         <v>3</v>
@@ -14310,7 +14311,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
@@ -14348,7 +14349,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B337" t="s">
         <v>3</v>
@@ -14386,7 +14387,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B338" t="s">
         <v>2</v>
@@ -14424,7 +14425,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B339" t="s">
         <v>3</v>
@@ -14462,7 +14463,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B340" t="s">
         <v>2</v>
@@ -14500,7 +14501,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -14538,7 +14539,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -14576,7 +14577,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -14614,7 +14615,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B344" t="s">
         <v>3</v>
@@ -14652,7 +14653,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B345" t="s">
         <v>2</v>
@@ -14690,7 +14691,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -14728,7 +14729,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B347" t="s">
         <v>2</v>
@@ -14766,7 +14767,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B348" t="s">
         <v>3</v>
@@ -14804,7 +14805,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B349" t="s">
         <v>2</v>
@@ -14842,7 +14843,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
@@ -14880,7 +14881,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B351" t="s">
         <v>2</v>
@@ -14918,7 +14919,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B352" t="s">
         <v>3</v>
@@ -14956,7 +14957,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B353" t="s">
         <v>2</v>
@@ -14994,7 +14995,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B354" t="s">
         <v>3</v>
@@ -15032,7 +15033,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B355" t="s">
         <v>2</v>
@@ -15070,7 +15071,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B356" t="s">
         <v>3</v>
@@ -15108,7 +15109,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B357" t="s">
         <v>2</v>
@@ -15146,7 +15147,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B358" t="s">
         <v>3</v>
@@ -15184,7 +15185,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B359" t="s">
         <v>2</v>
@@ -15222,7 +15223,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B360" t="s">
         <v>3</v>
@@ -15260,7 +15261,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B361" t="s">
         <v>2</v>
@@ -15298,7 +15299,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B362" t="s">
         <v>3</v>
@@ -15336,7 +15337,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B363" t="s">
         <v>2</v>
@@ -15374,7 +15375,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
@@ -15412,7 +15413,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B365" t="s">
         <v>2</v>
@@ -15450,7 +15451,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B366" t="s">
         <v>3</v>
@@ -15488,7 +15489,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B367" t="s">
         <v>2</v>
@@ -15526,7 +15527,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B368" t="s">
         <v>3</v>
@@ -15564,7 +15565,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B369" t="s">
         <v>2</v>
@@ -15602,7 +15603,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B370" t="s">
         <v>3</v>
@@ -15640,7 +15641,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B371" t="s">
         <v>2</v>
@@ -15678,7 +15679,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B372" t="s">
         <v>3</v>
@@ -15716,7 +15717,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B373" t="s">
         <v>2</v>
@@ -15754,7 +15755,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
@@ -15792,7 +15793,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
@@ -15830,7 +15831,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B376" t="s">
         <v>3</v>
@@ -15868,7 +15869,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B377" t="s">
         <v>2</v>
@@ -15906,7 +15907,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B378" t="s">
         <v>3</v>
@@ -15944,7 +15945,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B379" t="s">
         <v>2</v>
@@ -15982,7 +15983,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B380" t="s">
         <v>3</v>
@@ -16020,7 +16021,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
@@ -16058,7 +16059,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B382" t="s">
         <v>3</v>
@@ -16096,7 +16097,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
@@ -16134,7 +16135,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B384" t="s">
         <v>3</v>
@@ -16172,7 +16173,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
@@ -16210,7 +16211,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B386" t="s">
         <v>3</v>
@@ -16248,7 +16249,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
@@ -16286,7 +16287,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B388" t="s">
         <v>3</v>
@@ -16324,7 +16325,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
@@ -16362,7 +16363,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B390" t="s">
         <v>3</v>
@@ -16400,7 +16401,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
@@ -16438,7 +16439,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B392" t="s">
         <v>3</v>
@@ -16476,7 +16477,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
@@ -16514,7 +16515,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B394" t="s">
         <v>3</v>
@@ -16552,7 +16553,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
@@ -16590,7 +16591,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B396" t="s">
         <v>3</v>
@@ -16628,7 +16629,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B397" t="s">
         <v>2</v>
@@ -16666,7 +16667,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B398" t="s">
         <v>3</v>
@@ -16704,7 +16705,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B399" t="s">
         <v>2</v>
@@ -16742,7 +16743,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B400" t="s">
         <v>3</v>
@@ -16780,7 +16781,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B401" t="s">
         <v>2</v>
@@ -16818,7 +16819,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B402" t="s">
         <v>3</v>
@@ -16856,7 +16857,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B403" t="s">
         <v>2</v>
@@ -16894,7 +16895,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B404" t="s">
         <v>3</v>
@@ -16932,7 +16933,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B405" t="s">
         <v>2</v>
@@ -16970,7 +16971,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B406" t="s">
         <v>3</v>
@@ -17008,7 +17009,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B407" t="s">
         <v>2</v>
@@ -17046,7 +17047,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B408" t="s">
         <v>3</v>
@@ -17084,7 +17085,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B409" t="s">
         <v>2</v>
@@ -17122,7 +17123,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B410" t="s">
         <v>3</v>
@@ -17160,7 +17161,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B411" t="s">
         <v>2</v>
@@ -17198,7 +17199,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B412" t="s">
         <v>3</v>
@@ -17236,7 +17237,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
@@ -17274,7 +17275,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B414" t="s">
         <v>3</v>
@@ -17312,7 +17313,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B415" t="s">
         <v>2</v>
@@ -17350,7 +17351,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B416" t="s">
         <v>3</v>
@@ -17388,7 +17389,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B417" t="s">
         <v>2</v>
@@ -17426,7 +17427,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B418" t="s">
         <v>3</v>
@@ -17464,7 +17465,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B419" t="s">
         <v>2</v>
@@ -17502,7 +17503,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B420" t="s">
         <v>3</v>
@@ -17540,7 +17541,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B421" t="s">
         <v>2</v>
@@ -17578,7 +17579,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B422" t="s">
         <v>3</v>
@@ -17616,7 +17617,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B423" t="s">
         <v>2</v>
@@ -17654,7 +17655,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B424" t="s">
         <v>3</v>
@@ -17692,7 +17693,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B425" t="s">
         <v>2</v>
@@ -17730,7 +17731,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B426" t="s">
         <v>3</v>
@@ -17768,7 +17769,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B427" t="s">
         <v>2</v>
@@ -17806,7 +17807,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B428" t="s">
         <v>3</v>
@@ -17844,7 +17845,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
@@ -17882,7 +17883,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B430" t="s">
         <v>3</v>
@@ -17920,7 +17921,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B431" t="s">
         <v>2</v>
@@ -17958,7 +17959,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B432" t="s">
         <v>3</v>
@@ -17996,7 +17997,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B433" t="s">
         <v>2</v>
@@ -18034,7 +18035,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B434" t="s">
         <v>3</v>
@@ -18072,7 +18073,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
@@ -18110,7 +18111,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B436" t="s">
         <v>3</v>
@@ -18148,7 +18149,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -18186,7 +18187,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B438" t="s">
         <v>3</v>
@@ -18224,7 +18225,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -18262,7 +18263,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B440" t="s">
         <v>3</v>
@@ -18300,7 +18301,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -18338,7 +18339,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B442" t="s">
         <v>3</v>
@@ -18376,10 +18377,10 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B443" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -18414,7 +18415,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B444" t="s">
         <v>3</v>
@@ -18452,10 +18453,10 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B445" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -18490,7 +18491,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B446" t="s">
         <v>3</v>
@@ -18528,10 +18529,10 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B447" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -18566,7 +18567,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B448" t="s">
         <v>3</v>
@@ -18604,10 +18605,10 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B449" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -18642,7 +18643,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B450" t="s">
         <v>3</v>
@@ -18680,10 +18681,10 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B451" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -18718,7 +18719,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B452" t="s">
         <v>3</v>
@@ -18756,10 +18757,10 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B453" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -18794,7 +18795,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B454" t="s">
         <v>3</v>
@@ -18832,10 +18833,10 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B455" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -18870,7 +18871,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B456" t="s">
         <v>3</v>
@@ -18908,10 +18909,10 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B457" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -18946,7 +18947,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B458" t="s">
         <v>3</v>
@@ -18984,10 +18985,10 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B459" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -19022,7 +19023,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B460" t="s">
         <v>3</v>
@@ -19060,10 +19061,10 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B461" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -19098,7 +19099,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B462" t="s">
         <v>3</v>
@@ -19136,10 +19137,10 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B463" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -19174,7 +19175,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B464" t="s">
         <v>3</v>
@@ -19212,10 +19213,10 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B465" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -19250,7 +19251,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B466" t="s">
         <v>3</v>
@@ -19288,10 +19289,10 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B467" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -19326,7 +19327,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B468" t="s">
         <v>3</v>
@@ -19364,10 +19365,10 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B469" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C469">
         <v>0</v>
@@ -19402,7 +19403,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B470" t="s">
         <v>3</v>
@@ -19440,10 +19441,10 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B471" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -19478,7 +19479,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B472" t="s">
         <v>3</v>
@@ -19516,10 +19517,10 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B473" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -19554,7 +19555,7 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B474" t="s">
         <v>3</v>
@@ -19592,10 +19593,10 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B475" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C475">
         <v>0</v>
@@ -19630,7 +19631,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B476" t="s">
         <v>3</v>
@@ -19668,10 +19669,10 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B477" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -19706,7 +19707,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B478" t="s">
         <v>3</v>
@@ -19744,10 +19745,10 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B479" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -19782,7 +19783,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B480" t="s">
         <v>3</v>
@@ -19820,10 +19821,10 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B481" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -19858,7 +19859,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B482" t="s">
         <v>3</v>
@@ -19896,10 +19897,10 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B483" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -19934,7 +19935,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B484" t="s">
         <v>3</v>
@@ -19972,10 +19973,10 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B485" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -20010,7 +20011,7 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B486" t="s">
         <v>3</v>
@@ -20048,10 +20049,10 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B487" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -20086,7 +20087,7 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B488" t="s">
         <v>3</v>
@@ -20124,10 +20125,10 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B489" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -20162,7 +20163,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B490" t="s">
         <v>3</v>
@@ -20200,10 +20201,10 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B491" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -20238,7 +20239,7 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B492" t="s">
         <v>3</v>
@@ -20276,10 +20277,10 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B493" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -20314,7 +20315,7 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B494" t="s">
         <v>3</v>
@@ -20352,10 +20353,10 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B495" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -20390,7 +20391,7 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B496" t="s">
         <v>3</v>
@@ -20428,10 +20429,10 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B497" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -20466,7 +20467,7 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B498" t="s">
         <v>3</v>
@@ -20504,10 +20505,10 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B499" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -20542,7 +20543,7 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B500" t="s">
         <v>3</v>
@@ -20580,10 +20581,10 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B501" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -20618,7 +20619,7 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B502" t="s">
         <v>3</v>
@@ -20656,10 +20657,10 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B503" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -20694,7 +20695,7 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B504" t="s">
         <v>3</v>
@@ -20732,10 +20733,10 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B505" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C505">
         <v>0</v>
@@ -20770,7 +20771,7 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B506" t="s">
         <v>3</v>
@@ -20808,10 +20809,10 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B507" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C507">
         <v>0</v>
@@ -20846,7 +20847,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B508" t="s">
         <v>3</v>
@@ -20884,10 +20885,10 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B509" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C509">
         <v>0</v>
@@ -20922,7 +20923,7 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B510" t="s">
         <v>3</v>
@@ -20960,10 +20961,10 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B511" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C511">
         <v>0</v>
@@ -20998,7 +20999,7 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B512" t="s">
         <v>3</v>
@@ -21036,10 +21037,10 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B513" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -21074,7 +21075,7 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B514" t="s">
         <v>3</v>
@@ -21112,10 +21113,10 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B515" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -21150,7 +21151,7 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B516" t="s">
         <v>3</v>
@@ -21188,10 +21189,10 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B517" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -21226,7 +21227,7 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B518" t="s">
         <v>3</v>
@@ -21264,10 +21265,10 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B519" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C519">
         <v>0</v>
@@ -21302,7 +21303,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B520" t="s">
         <v>3</v>
@@ -21340,10 +21341,10 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B521" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -21378,7 +21379,7 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B522" t="s">
         <v>3</v>
@@ -21416,10 +21417,10 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B523" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C523">
         <v>0</v>
@@ -21454,7 +21455,7 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B524" t="s">
         <v>3</v>
@@ -21492,10 +21493,10 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B525" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -21530,7 +21531,7 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B526" t="s">
         <v>3</v>
@@ -21568,10 +21569,10 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B527" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C527">
         <v>0</v>
@@ -21606,7 +21607,7 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B528" t="s">
         <v>3</v>
@@ -21644,10 +21645,10 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B529" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C529">
         <v>0</v>
@@ -21682,7 +21683,7 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B530" t="s">
         <v>3</v>
@@ -21720,10 +21721,10 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B531" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C531">
         <v>0</v>
@@ -21758,7 +21759,7 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B532" t="s">
         <v>3</v>
@@ -21796,10 +21797,10 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B533" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -21834,7 +21835,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B534" t="s">
         <v>3</v>
@@ -21872,10 +21873,10 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B535" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -21910,7 +21911,7 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B536" t="s">
         <v>3</v>
@@ -21948,10 +21949,10 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B537" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -21986,7 +21987,7 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B538" t="s">
         <v>3</v>
@@ -22024,10 +22025,10 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B539" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -22062,7 +22063,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B540" t="s">
         <v>3</v>
@@ -22100,10 +22101,10 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B541" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -22138,7 +22139,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B542" t="s">
         <v>3</v>
@@ -22176,10 +22177,10 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B543" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -22214,7 +22215,7 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B544" t="s">
         <v>3</v>
@@ -22252,10 +22253,10 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B545" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C545">
         <v>0</v>
@@ -22290,7 +22291,7 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B546" t="s">
         <v>3</v>
@@ -22328,10 +22329,10 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B547" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C547">
         <v>0</v>
@@ -22366,7 +22367,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B548" t="s">
         <v>3</v>
@@ -22404,10 +22405,10 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B549" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C549">
         <v>0</v>
@@ -22442,7 +22443,7 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B550" t="s">
         <v>3</v>
@@ -22480,10 +22481,10 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B551" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C551">
         <v>0</v>
@@ -22518,7 +22519,7 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B552" t="s">
         <v>3</v>
@@ -22556,10 +22557,10 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B553" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -22594,7 +22595,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B554" t="s">
         <v>3</v>
@@ -22632,10 +22633,10 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B555" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C555">
         <v>0</v>
@@ -22670,7 +22671,7 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B556" t="s">
         <v>3</v>
@@ -22708,10 +22709,10 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B557" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C557">
         <v>0</v>
@@ -22746,7 +22747,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B558" t="s">
         <v>3</v>
@@ -22784,10 +22785,10 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B559" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -22822,7 +22823,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B560" t="s">
         <v>3</v>
@@ -22860,10 +22861,10 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B561" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C561">
         <v>0</v>
@@ -22898,7 +22899,7 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B562" t="s">
         <v>3</v>
@@ -22936,10 +22937,10 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B563" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C563">
         <v>0</v>
@@ -22974,7 +22975,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B564" t="s">
         <v>3</v>
@@ -23012,10 +23013,10 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B565" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C565">
         <v>0</v>
@@ -23050,7 +23051,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B566" t="s">
         <v>3</v>
@@ -23088,10 +23089,10 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B567" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C567">
         <v>0</v>
@@ -23126,7 +23127,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B568" t="s">
         <v>3</v>
@@ -23164,10 +23165,10 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B569" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -23202,7 +23203,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B570" t="s">
         <v>3</v>
@@ -23240,10 +23241,10 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B571" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C571">
         <v>0</v>
@@ -23278,7 +23279,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B572" t="s">
         <v>3</v>
@@ -23316,10 +23317,10 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B573" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C573">
         <v>0</v>
@@ -23354,7 +23355,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B574" t="s">
         <v>3</v>
@@ -23392,10 +23393,10 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B575" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C575">
         <v>0</v>
@@ -23430,7 +23431,7 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B576" t="s">
         <v>3</v>
@@ -23468,10 +23469,10 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B577" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C577">
         <v>0</v>
@@ -23506,7 +23507,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B578" t="s">
         <v>3</v>
@@ -23544,10 +23545,10 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B579" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -23582,7 +23583,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B580" t="s">
         <v>3</v>
@@ -23620,10 +23621,10 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B581" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -23658,7 +23659,7 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B582" t="s">
         <v>3</v>
@@ -23696,10 +23697,10 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B583" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C583">
         <v>0</v>
@@ -23734,7 +23735,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B584" t="s">
         <v>3</v>
@@ -23772,10 +23773,10 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B585" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C585">
         <v>0</v>
@@ -23810,7 +23811,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B586" t="s">
         <v>3</v>
@@ -23848,10 +23849,10 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B587" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C587">
         <v>0</v>
@@ -23886,7 +23887,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B588" t="s">
         <v>3</v>
@@ -23924,10 +23925,10 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B589" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C589">
         <v>0</v>
@@ -23962,7 +23963,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B590" t="s">
         <v>3</v>
@@ -24000,10 +24001,10 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B591" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C591">
         <v>0</v>
@@ -24038,7 +24039,7 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B592" t="s">
         <v>3</v>
@@ -24076,10 +24077,10 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B593" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -24114,7 +24115,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B594" t="s">
         <v>3</v>
@@ -24152,10 +24153,10 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B595" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -24190,7 +24191,7 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B596" t="s">
         <v>3</v>
@@ -24228,10 +24229,10 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B597" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C597">
         <v>0</v>
@@ -24266,7 +24267,7 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B598" t="s">
         <v>3</v>
@@ -24304,10 +24305,10 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B599" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C599">
         <v>0</v>
@@ -24342,7 +24343,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B600" t="s">
         <v>3</v>
@@ -24380,10 +24381,10 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B601" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C601">
         <v>0</v>
@@ -24418,7 +24419,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B602" t="s">
         <v>3</v>
@@ -24456,10 +24457,10 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B603" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C603">
         <v>0</v>
@@ -24494,7 +24495,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B604" t="s">
         <v>3</v>
@@ -24532,10 +24533,10 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B605" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -24570,7 +24571,7 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B606" t="s">
         <v>3</v>
@@ -24608,10 +24609,10 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B607" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C607">
         <v>0</v>
@@ -24646,7 +24647,7 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B608" t="s">
         <v>3</v>
@@ -24684,10 +24685,10 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B609" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C609">
         <v>0</v>
@@ -24722,7 +24723,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B610" t="s">
         <v>3</v>
@@ -24760,10 +24761,10 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B611" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C611">
         <v>0</v>
@@ -24798,7 +24799,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B612" t="s">
         <v>3</v>
@@ -24836,10 +24837,10 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B613" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -24874,7 +24875,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B614" t="s">
         <v>3</v>
@@ -24912,10 +24913,10 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B615" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C615">
         <v>0</v>
@@ -24950,7 +24951,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B616" t="s">
         <v>3</v>
@@ -24988,10 +24989,10 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B617" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -25026,7 +25027,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B618" t="s">
         <v>3</v>
@@ -25064,10 +25065,10 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B619" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C619">
         <v>0</v>
@@ -25102,7 +25103,7 @@
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B620" t="s">
         <v>3</v>
@@ -25140,10 +25141,10 @@
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B621" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -25178,7 +25179,7 @@
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B622" t="s">
         <v>3</v>
@@ -25216,10 +25217,10 @@
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B623" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C623">
         <v>0</v>
@@ -25254,7 +25255,7 @@
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B624" t="s">
         <v>3</v>
@@ -25292,10 +25293,10 @@
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B625" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C625">
         <v>0</v>
@@ -25330,7 +25331,7 @@
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B626" t="s">
         <v>3</v>
@@ -25368,10 +25369,10 @@
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B627" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C627">
         <v>0</v>
@@ -25406,7 +25407,7 @@
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B628" t="s">
         <v>3</v>
@@ -25444,10 +25445,10 @@
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B629" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -25482,7 +25483,7 @@
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B630" t="s">
         <v>3</v>
@@ -25520,10 +25521,10 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B631" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C631">
         <v>0</v>
@@ -25558,7 +25559,7 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B632" t="s">
         <v>3</v>
@@ -25596,10 +25597,10 @@
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B633" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C633">
         <v>0</v>
@@ -25634,7 +25635,7 @@
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B634" t="s">
         <v>3</v>
@@ -25672,10 +25673,10 @@
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B635" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C635">
         <v>0</v>
@@ -25710,7 +25711,7 @@
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B636" t="s">
         <v>3</v>
@@ -25748,10 +25749,10 @@
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B637" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C637">
         <v>0</v>
@@ -25786,7 +25787,7 @@
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B638" t="s">
         <v>3</v>
@@ -25824,10 +25825,10 @@
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B639" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C639">
         <v>0</v>
@@ -25862,7 +25863,7 @@
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B640" t="s">
         <v>3</v>
@@ -25900,10 +25901,10 @@
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B641" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C641">
         <v>0</v>
@@ -25938,7 +25939,7 @@
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B642" t="s">
         <v>3</v>
@@ -25976,10 +25977,10 @@
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B643" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C643">
         <v>0</v>
@@ -26014,7 +26015,7 @@
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B644" t="s">
         <v>3</v>
@@ -26052,10 +26053,10 @@
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B645" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C645">
         <v>0</v>
@@ -26090,7 +26091,7 @@
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B646" t="s">
         <v>3</v>
@@ -26128,10 +26129,10 @@
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B647" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C647">
         <v>0</v>
@@ -26166,7 +26167,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B648" t="s">
         <v>3</v>
@@ -26204,10 +26205,10 @@
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B649" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C649">
         <v>0</v>
@@ -26242,7 +26243,7 @@
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B650" t="s">
         <v>3</v>
@@ -26280,10 +26281,10 @@
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B651" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C651">
         <v>0</v>
@@ -26318,7 +26319,7 @@
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B652" t="s">
         <v>3</v>
@@ -26356,10 +26357,10 @@
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B653" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C653">
         <v>0</v>
@@ -26394,7 +26395,7 @@
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B654" t="s">
         <v>3</v>
@@ -26432,10 +26433,10 @@
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B655" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C655">
         <v>0</v>
@@ -26470,7 +26471,7 @@
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B656" t="s">
         <v>3</v>
@@ -26508,10 +26509,10 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B657" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C657">
         <v>0</v>
@@ -26546,7 +26547,7 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B658" t="s">
         <v>3</v>
@@ -26584,10 +26585,10 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B659" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C659">
         <v>0</v>
@@ -26622,7 +26623,7 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B660" t="s">
         <v>3</v>
@@ -26660,10 +26661,10 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B661" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -26698,7 +26699,7 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B662" t="s">
         <v>3</v>
@@ -26736,10 +26737,10 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B663" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C663">
         <v>0</v>
@@ -26774,7 +26775,7 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B664" t="s">
         <v>3</v>
@@ -26812,10 +26813,10 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B665" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C665">
         <v>0</v>
@@ -26850,7 +26851,7 @@
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B666" t="s">
         <v>3</v>
@@ -26888,10 +26889,10 @@
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B667" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -26926,7 +26927,7 @@
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B668" t="s">
         <v>3</v>
@@ -26964,10 +26965,10 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B669" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C669">
         <v>0</v>
@@ -27002,7 +27003,7 @@
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B670" t="s">
         <v>3</v>
@@ -27040,10 +27041,10 @@
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B671" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C671">
         <v>0</v>
@@ -27078,7 +27079,7 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B672" t="s">
         <v>3</v>
@@ -27116,10 +27117,10 @@
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B673" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C673">
         <v>0</v>
@@ -27154,7 +27155,7 @@
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B674" t="s">
         <v>3</v>
@@ -27192,10 +27193,10 @@
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B675" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C675">
         <v>0</v>
@@ -27230,7 +27231,7 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B676" t="s">
         <v>3</v>
@@ -27268,10 +27269,10 @@
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B677" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C677">
         <v>0</v>
@@ -27306,7 +27307,7 @@
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B678" t="s">
         <v>3</v>
@@ -27344,10 +27345,10 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B679" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -27382,7 +27383,7 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B680" t="s">
         <v>3</v>
@@ -27420,10 +27421,10 @@
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B681" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C681">
         <v>0</v>
@@ -27458,7 +27459,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B682" t="s">
         <v>3</v>
@@ -27496,10 +27497,10 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B683" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C683">
         <v>0</v>
@@ -27534,7 +27535,7 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B684" t="s">
         <v>3</v>
@@ -27572,10 +27573,10 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B685" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C685">
         <v>0</v>
@@ -27610,7 +27611,7 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B686" t="s">
         <v>3</v>
@@ -27648,10 +27649,10 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B687" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C687">
         <v>0</v>
@@ -27686,7 +27687,7 @@
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B688" t="s">
         <v>3</v>
@@ -27724,10 +27725,10 @@
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B689" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C689">
         <v>0</v>
@@ -27762,7 +27763,7 @@
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B690" t="s">
         <v>3</v>
@@ -27800,10 +27801,10 @@
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B691" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -27838,7 +27839,7 @@
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B692" t="s">
         <v>3</v>
@@ -27876,10 +27877,10 @@
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B693" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C693">
         <v>0</v>
@@ -27914,7 +27915,7 @@
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B694" t="s">
         <v>3</v>
@@ -27952,10 +27953,10 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B695" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -27990,7 +27991,7 @@
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B696" t="s">
         <v>3</v>
@@ -28028,10 +28029,10 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B697" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C697">
         <v>0</v>
@@ -28066,7 +28067,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B698" t="s">
         <v>3</v>
@@ -28104,10 +28105,10 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B699" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C699">
         <v>0</v>
@@ -28142,7 +28143,7 @@
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B700" t="s">
         <v>3</v>
@@ -28180,10 +28181,10 @@
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B701" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C701">
         <v>0</v>
@@ -28218,7 +28219,7 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B702" t="s">
         <v>3</v>
@@ -28256,10 +28257,10 @@
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B703" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C703">
         <v>0</v>
@@ -28294,7 +28295,7 @@
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B704" t="s">
         <v>3</v>
@@ -28332,10 +28333,10 @@
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B705" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C705">
         <v>0</v>
@@ -28370,7 +28371,7 @@
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B706" t="s">
         <v>3</v>
@@ -28408,10 +28409,10 @@
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B707" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C707">
         <v>0</v>
@@ -28446,7 +28447,7 @@
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B708" t="s">
         <v>3</v>
@@ -28484,10 +28485,10 @@
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B709" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -28522,7 +28523,7 @@
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B710" t="s">
         <v>3</v>
@@ -28560,10 +28561,10 @@
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B711" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C711">
         <v>0</v>
@@ -28598,7 +28599,7 @@
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B712" t="s">
         <v>3</v>
@@ -28636,10 +28637,10 @@
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B713" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C713">
         <v>0</v>
@@ -28674,7 +28675,7 @@
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B714" t="s">
         <v>3</v>
@@ -28712,10 +28713,10 @@
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B715" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C715">
         <v>0</v>
@@ -28750,7 +28751,7 @@
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B716" t="s">
         <v>3</v>
@@ -28788,10 +28789,10 @@
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B717" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C717">
         <v>0</v>
@@ -28826,7 +28827,7 @@
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B718" t="s">
         <v>3</v>
@@ -28864,10 +28865,10 @@
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B719" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C719">
         <v>0</v>
@@ -28902,7 +28903,7 @@
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B720" t="s">
         <v>3</v>
@@ -28940,10 +28941,10 @@
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B721" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C721">
         <v>0</v>
@@ -28978,7 +28979,7 @@
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B722" t="s">
         <v>3</v>
@@ -29016,10 +29017,10 @@
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B723" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C723">
         <v>0</v>
@@ -29054,7 +29055,7 @@
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B724" t="s">
         <v>3</v>
@@ -29092,10 +29093,10 @@
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B725" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C725">
         <v>0</v>
@@ -29130,7 +29131,7 @@
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B726" t="s">
         <v>3</v>
@@ -29168,10 +29169,10 @@
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B727" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C727">
         <v>0</v>
@@ -29206,7 +29207,7 @@
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B728" t="s">
         <v>3</v>
@@ -29244,10 +29245,10 @@
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B729" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C729">
         <v>0</v>
@@ -29282,7 +29283,7 @@
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B730" t="s">
         <v>3</v>
@@ -29320,10 +29321,10 @@
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B731" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C731">
         <v>0</v>
@@ -29358,7 +29359,7 @@
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B732" t="s">
         <v>3</v>
@@ -29396,10 +29397,10 @@
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B733" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C733">
         <v>0</v>
@@ -29434,7 +29435,7 @@
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B734" t="s">
         <v>3</v>
@@ -29472,10 +29473,10 @@
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B735" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C735">
         <v>0</v>
@@ -29510,7 +29511,7 @@
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B736" t="s">
         <v>3</v>
@@ -29548,10 +29549,10 @@
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B737" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C737">
         <v>0</v>
@@ -29586,7 +29587,7 @@
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B738" t="s">
         <v>3</v>
@@ -29624,10 +29625,10 @@
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B739" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C739">
         <v>0</v>
@@ -29662,7 +29663,7 @@
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B740" t="s">
         <v>3</v>
@@ -29700,10 +29701,10 @@
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B741" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C741">
         <v>0</v>
@@ -29738,7 +29739,7 @@
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B742" t="s">
         <v>3</v>
@@ -29776,10 +29777,10 @@
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B743" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C743">
         <v>0</v>
@@ -29814,7 +29815,7 @@
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B744" t="s">
         <v>3</v>
@@ -29852,10 +29853,10 @@
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B745" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C745">
         <v>0</v>
@@ -29890,7 +29891,7 @@
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B746" t="s">
         <v>3</v>
@@ -29927,11 +29928,11 @@
       </c>
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A747" s="1">
+      <c r="A747" s="2">
         <v>46023</v>
       </c>
       <c r="B747" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C747">
         <v>0</v>
@@ -29965,7 +29966,7 @@
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A748" s="1">
+      <c r="A748" s="2">
         <v>46023</v>
       </c>
       <c r="B748" t="s">
@@ -30003,11 +30004,11 @@
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A749" s="1">
+      <c r="A749" s="2">
         <v>46024</v>
       </c>
       <c r="B749" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C749">
         <v>0</v>
@@ -30041,7 +30042,7 @@
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A750" s="1">
+      <c r="A750" s="2">
         <v>46024</v>
       </c>
       <c r="B750" t="s">
@@ -30079,11 +30080,11 @@
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A751" s="1">
+      <c r="A751" s="2">
         <v>46025</v>
       </c>
       <c r="B751" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C751">
         <v>0</v>
@@ -30117,7 +30118,7 @@
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A752" s="1">
+      <c r="A752" s="2">
         <v>46025</v>
       </c>
       <c r="B752" t="s">
@@ -30155,11 +30156,11 @@
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A753" s="1">
+      <c r="A753" s="2">
         <v>46026</v>
       </c>
       <c r="B753" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C753">
         <v>0</v>
@@ -30193,7 +30194,7 @@
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A754" s="1">
+      <c r="A754" s="2">
         <v>46026</v>
       </c>
       <c r="B754" t="s">
@@ -30231,11 +30232,11 @@
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A755" s="1">
+      <c r="A755" s="2">
         <v>46027</v>
       </c>
       <c r="B755" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C755">
         <v>0</v>
@@ -30269,7 +30270,7 @@
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A756" s="1">
+      <c r="A756" s="2">
         <v>46027</v>
       </c>
       <c r="B756" t="s">
@@ -30307,11 +30308,11 @@
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A757" s="1">
+      <c r="A757" s="2">
         <v>46028</v>
       </c>
       <c r="B757" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C757">
         <v>0</v>
@@ -30339,7 +30340,7 @@
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A758" s="1">
+      <c r="A758" s="2">
         <v>46028</v>
       </c>
       <c r="B758" t="s">
@@ -30377,11 +30378,11 @@
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A759" s="1">
+      <c r="A759" s="2">
         <v>46029</v>
       </c>
       <c r="B759" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C759">
         <v>0</v>
@@ -30415,7 +30416,7 @@
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A760" s="1">
+      <c r="A760" s="2">
         <v>46029</v>
       </c>
       <c r="B760" t="s">
@@ -30453,11 +30454,11 @@
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A761" s="1">
+      <c r="A761" s="2">
         <v>46030</v>
       </c>
       <c r="B761" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C761">
         <v>0</v>
@@ -30491,7 +30492,7 @@
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A762" s="1">
+      <c r="A762" s="2">
         <v>46030</v>
       </c>
       <c r="B762" t="s">
@@ -30529,11 +30530,11 @@
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A763" s="1">
+      <c r="A763" s="2">
         <v>46031</v>
       </c>
       <c r="B763" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C763">
         <v>0</v>
@@ -30567,7 +30568,7 @@
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A764" s="1">
+      <c r="A764" s="2">
         <v>46031</v>
       </c>
       <c r="B764" t="s">
@@ -30605,11 +30606,11 @@
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A765" s="1">
+      <c r="A765" s="2">
         <v>46032</v>
       </c>
       <c r="B765" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C765">
         <v>0</v>
@@ -30643,7 +30644,7 @@
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A766" s="1">
+      <c r="A766" s="2">
         <v>46032</v>
       </c>
       <c r="B766" t="s">
@@ -30681,11 +30682,11 @@
       </c>
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A767" s="1">
+      <c r="A767" s="2">
         <v>46033</v>
       </c>
       <c r="B767" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C767">
         <v>0</v>
@@ -30719,7 +30720,7 @@
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A768" s="1">
+      <c r="A768" s="2">
         <v>46033</v>
       </c>
       <c r="B768" t="s">
@@ -30757,11 +30758,11 @@
       </c>
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A769" s="1">
+      <c r="A769" s="2">
         <v>46034</v>
       </c>
       <c r="B769" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C769">
         <v>0</v>
@@ -30795,7 +30796,7 @@
       </c>
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A770" s="1">
+      <c r="A770" s="2">
         <v>46034</v>
       </c>
       <c r="B770" t="s">
@@ -30833,11 +30834,11 @@
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A771" s="1">
+      <c r="A771" s="2">
         <v>46035</v>
       </c>
       <c r="B771" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C771">
         <v>0</v>
@@ -30871,7 +30872,7 @@
       </c>
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A772" s="1">
+      <c r="A772" s="2">
         <v>46035</v>
       </c>
       <c r="B772" t="s">
@@ -30909,11 +30910,11 @@
       </c>
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A773" s="1">
+      <c r="A773" s="2">
         <v>46036</v>
       </c>
       <c r="B773" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C773">
         <v>0</v>
@@ -30947,7 +30948,7 @@
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A774" s="1">
+      <c r="A774" s="2">
         <v>46036</v>
       </c>
       <c r="B774" t="s">
@@ -30985,11 +30986,11 @@
       </c>
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A775" s="1">
+      <c r="A775" s="2">
         <v>46037</v>
       </c>
       <c r="B775" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C775">
         <v>0</v>
@@ -31023,7 +31024,7 @@
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A776" s="1">
+      <c r="A776" s="2">
         <v>46037</v>
       </c>
       <c r="B776" t="s">
@@ -31061,11 +31062,11 @@
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A777" s="1">
+      <c r="A777" s="2">
         <v>46038</v>
       </c>
       <c r="B777" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C777">
         <v>0</v>
@@ -31099,7 +31100,7 @@
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A778" s="1">
+      <c r="A778" s="2">
         <v>46038</v>
       </c>
       <c r="B778" t="s">
@@ -31137,11 +31138,11 @@
       </c>
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A779" s="1">
+      <c r="A779" s="2">
         <v>46039</v>
       </c>
       <c r="B779" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C779">
         <v>0</v>
@@ -31175,7 +31176,7 @@
       </c>
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A780" s="1">
+      <c r="A780" s="2">
         <v>46039</v>
       </c>
       <c r="B780" t="s">
@@ -31213,11 +31214,11 @@
       </c>
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A781" s="1">
+      <c r="A781" s="2">
         <v>46040</v>
       </c>
       <c r="B781" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C781">
         <v>0</v>
@@ -31251,7 +31252,7 @@
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A782" s="1">
+      <c r="A782" s="2">
         <v>46040</v>
       </c>
       <c r="B782" t="s">
@@ -31289,11 +31290,11 @@
       </c>
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A783" s="1">
+      <c r="A783" s="2">
         <v>46041</v>
       </c>
       <c r="B783" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C783">
         <v>0</v>
@@ -31327,7 +31328,7 @@
       </c>
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A784" s="1">
+      <c r="A784" s="2">
         <v>46041</v>
       </c>
       <c r="B784" t="s">
@@ -31365,11 +31366,11 @@
       </c>
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A785" s="1">
+      <c r="A785" s="2">
         <v>46042</v>
       </c>
       <c r="B785" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C785">
         <v>0</v>
@@ -31403,7 +31404,7 @@
       </c>
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A786" s="1">
+      <c r="A786" s="2">
         <v>46042</v>
       </c>
       <c r="B786" t="s">
@@ -31441,11 +31442,11 @@
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A787" s="1">
+      <c r="A787" s="2">
         <v>46043</v>
       </c>
       <c r="B787" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C787">
         <v>0</v>
@@ -31479,7 +31480,7 @@
       </c>
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A788" s="1">
+      <c r="A788" s="2">
         <v>46043</v>
       </c>
       <c r="B788" t="s">
@@ -31517,11 +31518,11 @@
       </c>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A789" s="1">
+      <c r="A789" s="2">
         <v>46044</v>
       </c>
       <c r="B789" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C789">
         <v>0</v>
@@ -31555,7 +31556,7 @@
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A790" s="1">
+      <c r="A790" s="2">
         <v>46044</v>
       </c>
       <c r="B790" t="s">
@@ -31593,11 +31594,11 @@
       </c>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A791" s="1">
+      <c r="A791" s="2">
         <v>46045</v>
       </c>
       <c r="B791" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C791">
         <v>2</v>
@@ -31631,7 +31632,7 @@
       </c>
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A792" s="1">
+      <c r="A792" s="2">
         <v>46045</v>
       </c>
       <c r="B792" t="s">
@@ -31666,6 +31667,614 @@
       </c>
       <c r="L792">
         <v>100</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>46046</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2</v>
+      </c>
+      <c r="C793">
+        <v>0</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793">
+        <v>6</v>
+      </c>
+      <c r="F793">
+        <v>150</v>
+      </c>
+      <c r="G793">
+        <v>0</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+      <c r="I793">
+        <v>0</v>
+      </c>
+      <c r="J793">
+        <v>0</v>
+      </c>
+      <c r="K793">
+        <v>1</v>
+      </c>
+      <c r="L793">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A794" s="2">
+        <v>46046</v>
+      </c>
+      <c r="B794" t="s">
+        <v>3</v>
+      </c>
+      <c r="C794">
+        <v>1</v>
+      </c>
+      <c r="D794">
+        <v>0</v>
+      </c>
+      <c r="E794">
+        <v>17</v>
+      </c>
+      <c r="F794">
+        <v>425</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794">
+        <v>0</v>
+      </c>
+      <c r="I794">
+        <v>1</v>
+      </c>
+      <c r="J794">
+        <v>25</v>
+      </c>
+      <c r="K794">
+        <v>1</v>
+      </c>
+      <c r="L794">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
+        <v>46047</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2</v>
+      </c>
+      <c r="C795">
+        <v>0</v>
+      </c>
+      <c r="D795">
+        <v>0</v>
+      </c>
+      <c r="E795">
+        <v>8</v>
+      </c>
+      <c r="F795">
+        <v>200</v>
+      </c>
+      <c r="G795">
+        <v>0</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+      <c r="I795">
+        <v>0</v>
+      </c>
+      <c r="J795">
+        <v>0</v>
+      </c>
+      <c r="K795">
+        <v>0</v>
+      </c>
+      <c r="L795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
+        <v>46047</v>
+      </c>
+      <c r="B796" t="s">
+        <v>3</v>
+      </c>
+      <c r="C796">
+        <v>0</v>
+      </c>
+      <c r="D796">
+        <v>0</v>
+      </c>
+      <c r="E796">
+        <v>18</v>
+      </c>
+      <c r="F796">
+        <v>450</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796">
+        <v>0</v>
+      </c>
+      <c r="I796">
+        <v>1</v>
+      </c>
+      <c r="J796">
+        <v>25</v>
+      </c>
+      <c r="K796">
+        <v>1</v>
+      </c>
+      <c r="L796">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2</v>
+      </c>
+      <c r="C797">
+        <v>0</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797">
+        <v>8</v>
+      </c>
+      <c r="F797">
+        <v>200</v>
+      </c>
+      <c r="G797">
+        <v>0</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+      <c r="I797">
+        <v>0</v>
+      </c>
+      <c r="J797">
+        <v>0</v>
+      </c>
+      <c r="K797">
+        <v>1</v>
+      </c>
+      <c r="L797">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A798" s="2">
+        <v>46048</v>
+      </c>
+      <c r="B798" t="s">
+        <v>3</v>
+      </c>
+      <c r="C798">
+        <v>1</v>
+      </c>
+      <c r="D798">
+        <v>25</v>
+      </c>
+      <c r="E798">
+        <v>16</v>
+      </c>
+      <c r="F798">
+        <v>450</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+      <c r="H798">
+        <v>0</v>
+      </c>
+      <c r="I798">
+        <v>0</v>
+      </c>
+      <c r="J798">
+        <v>0</v>
+      </c>
+      <c r="K798">
+        <v>3</v>
+      </c>
+      <c r="L798">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A799" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2</v>
+      </c>
+      <c r="C799">
+        <v>0</v>
+      </c>
+      <c r="D799">
+        <v>0</v>
+      </c>
+      <c r="E799">
+        <v>8</v>
+      </c>
+      <c r="F799">
+        <v>200</v>
+      </c>
+      <c r="G799">
+        <v>0</v>
+      </c>
+      <c r="H799">
+        <v>0</v>
+      </c>
+      <c r="I799">
+        <v>0</v>
+      </c>
+      <c r="J799">
+        <v>0</v>
+      </c>
+      <c r="K799">
+        <v>0</v>
+      </c>
+      <c r="L799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
+        <v>46049</v>
+      </c>
+      <c r="B800" t="s">
+        <v>3</v>
+      </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
+      <c r="D800">
+        <v>0</v>
+      </c>
+      <c r="E800">
+        <v>20</v>
+      </c>
+      <c r="F800">
+        <v>500</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>0</v>
+      </c>
+      <c r="I800">
+        <v>1</v>
+      </c>
+      <c r="J800">
+        <v>25</v>
+      </c>
+      <c r="K800">
+        <v>2</v>
+      </c>
+      <c r="L800">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2</v>
+      </c>
+      <c r="C801">
+        <v>0</v>
+      </c>
+      <c r="D801">
+        <v>0</v>
+      </c>
+      <c r="E801">
+        <v>7</v>
+      </c>
+      <c r="F801">
+        <v>175</v>
+      </c>
+      <c r="G801">
+        <v>0</v>
+      </c>
+      <c r="H801">
+        <v>0</v>
+      </c>
+      <c r="I801">
+        <v>0</v>
+      </c>
+      <c r="J801">
+        <v>0</v>
+      </c>
+      <c r="K801">
+        <v>1</v>
+      </c>
+      <c r="L801">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>46050</v>
+      </c>
+      <c r="B802" t="s">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>2</v>
+      </c>
+      <c r="D802">
+        <v>50</v>
+      </c>
+      <c r="E802">
+        <v>21</v>
+      </c>
+      <c r="F802">
+        <v>525</v>
+      </c>
+      <c r="G802">
+        <v>0</v>
+      </c>
+      <c r="H802">
+        <v>0</v>
+      </c>
+      <c r="I802">
+        <v>1</v>
+      </c>
+      <c r="J802">
+        <v>25</v>
+      </c>
+      <c r="K802">
+        <v>1</v>
+      </c>
+      <c r="L802">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2</v>
+      </c>
+      <c r="C803">
+        <v>0</v>
+      </c>
+      <c r="D803">
+        <v>0</v>
+      </c>
+      <c r="E803">
+        <v>8</v>
+      </c>
+      <c r="F803">
+        <v>200</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803">
+        <v>0</v>
+      </c>
+      <c r="I803">
+        <v>1</v>
+      </c>
+      <c r="J803">
+        <v>25</v>
+      </c>
+      <c r="K803">
+        <v>0</v>
+      </c>
+      <c r="L803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>46051</v>
+      </c>
+      <c r="B804" t="s">
+        <v>3</v>
+      </c>
+      <c r="C804">
+        <v>0</v>
+      </c>
+      <c r="D804">
+        <v>0</v>
+      </c>
+      <c r="E804">
+        <v>18</v>
+      </c>
+      <c r="F804">
+        <v>450</v>
+      </c>
+      <c r="G804">
+        <v>0</v>
+      </c>
+      <c r="H804">
+        <v>0</v>
+      </c>
+      <c r="I804">
+        <v>3</v>
+      </c>
+      <c r="J804">
+        <v>60</v>
+      </c>
+      <c r="K804">
+        <v>3</v>
+      </c>
+      <c r="L804">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2</v>
+      </c>
+      <c r="C805">
+        <v>0</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805">
+        <v>6</v>
+      </c>
+      <c r="F805">
+        <v>150</v>
+      </c>
+      <c r="G805">
+        <v>0</v>
+      </c>
+      <c r="H805">
+        <v>0</v>
+      </c>
+      <c r="I805">
+        <v>0</v>
+      </c>
+      <c r="J805">
+        <v>0</v>
+      </c>
+      <c r="K805">
+        <v>0</v>
+      </c>
+      <c r="L805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>46052</v>
+      </c>
+      <c r="B806" t="s">
+        <v>3</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+      <c r="D806">
+        <v>0</v>
+      </c>
+      <c r="E806">
+        <v>17</v>
+      </c>
+      <c r="F806">
+        <v>425</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806">
+        <v>0</v>
+      </c>
+      <c r="I806">
+        <v>0</v>
+      </c>
+      <c r="J806">
+        <v>0</v>
+      </c>
+      <c r="K806">
+        <v>2</v>
+      </c>
+      <c r="L806">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>46053</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2</v>
+      </c>
+      <c r="C807">
+        <v>0</v>
+      </c>
+      <c r="D807">
+        <v>0</v>
+      </c>
+      <c r="E807">
+        <v>6</v>
+      </c>
+      <c r="F807">
+        <v>150</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+      <c r="H807">
+        <v>0</v>
+      </c>
+      <c r="I807">
+        <v>0</v>
+      </c>
+      <c r="J807">
+        <v>0</v>
+      </c>
+      <c r="K807">
+        <v>1</v>
+      </c>
+      <c r="L807">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>46053</v>
+      </c>
+      <c r="B808" t="s">
+        <v>3</v>
+      </c>
+      <c r="C808">
+        <v>0</v>
+      </c>
+      <c r="D808">
+        <v>0</v>
+      </c>
+      <c r="E808">
+        <v>19</v>
+      </c>
+      <c r="F808">
+        <v>475</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+      <c r="H808">
+        <v>0</v>
+      </c>
+      <c r="I808">
+        <v>1</v>
+      </c>
+      <c r="J808">
+        <v>25</v>
+      </c>
+      <c r="K808">
+        <v>3</v>
+      </c>
+      <c r="L808">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
